--- a/RencitaDay3/Output/Assignment_3/Assignment_3_Input_Output.xlsx
+++ b/RencitaDay3/Output/Assignment_3/Assignment_3_Input_Output.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD993B17-46D2-4C2F-84C0-82505185923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{AD993B17-46D2-4C2F-84C0-82505185923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC166095-DE5A-4307-92E1-A9D1968D7EB8}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="3540" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6132" yWindow="1944" windowWidth="14304" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="June Report" sheetId="2" r:id="rId1"/>
@@ -521,15 +521,15 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -543,7 +543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -557,7 +557,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -571,7 +571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -585,7 +585,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -599,7 +599,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -613,7 +613,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -627,7 +627,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -641,7 +641,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -655,7 +655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -669,7 +669,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -683,7 +683,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -697,7 +697,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -711,7 +711,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -725,7 +725,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -739,7 +739,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -753,7 +753,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -767,7 +767,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -781,7 +781,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -795,7 +795,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -809,7 +809,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -823,7 +823,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -837,7 +837,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -851,7 +851,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -865,7 +865,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -879,7 +879,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -893,7 +893,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -907,7 +907,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -921,7 +921,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -935,7 +935,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,7 +949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -963,7 +963,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -977,7 +977,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -991,7 +991,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>32</v>
       </c>
@@ -1259,9 +1259,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>35630</v>
       </c>
@@ -1285,16 +1285,16 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>30</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>31</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>32</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
